--- a/Programming Challenge.xlsx
+++ b/Programming Challenge.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5551" uniqueCount="771">
   <si>
     <t>Emma</t>
   </si>
@@ -2037,13 +2037,308 @@
   </si>
   <si>
     <t>Chat Time (Seconds)</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":1,"Victim":"Diana","Gossiper":"Kyler"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":2,"Victim":"Angel","Gossiper":"Carmen"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":2,"Rumor Travel Time":4035,"Calculation Time":9}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Victim":"Madilyn","Gossiper":"Sofia"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Rumor Travel Time":5321,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":4,"Victim":"Kayla","Gossiper":"Brodie"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":4,"Rumor Travel Time":2725,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":5,"Victim":"Marisol","Gossiper":"Eliana"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":5,"Rumor Travel Time":1653,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Victim":"Aaliyah","Gossiper":"Maria"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Victim":"Max","Gossiper":"Kameron"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":6}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":8,"Victim":"Fabian","Gossiper":"Richard"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":8,"Rumor Travel Time":3256,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":9,"Victim":"Nicholas","Gossiper":"Juan"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":9,"Rumor Travel Time":4582,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Victim":"Stephanie","Gossiper":"Brenda"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Victim":"Amelia","Gossiper":"Beckett"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Rumor Travel Time":5748,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Victim":"Ryder","Gossiper":"Penelope"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Victim":"Baylee","Gossiper":"Sarai"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":14,"Victim":"Kyra","Gossiper":"Xavier"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":14,"Rumor Travel Time":2919,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Victim":"Paola","Gossiper":"Katelynn"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Rumor Travel Time":3935,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":16,"Victim":"Kara","Gossiper":"Madyson"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":16,"Rumor Travel Time":5258,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Victim":"Brooklyn","Gossiper":"Jose"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":18,"Victim":"Cade","Gossiper":"Sarai"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":18,"Rumor Travel Time":3108,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Victim":"Sophia","Gossiper":"Ricky"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Rumor Travel Time":8070,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":20,"Victim":"Elliot","Gossiper":"Bryan"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":20,"Rumor Travel Time":5267,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":21,"Victim":"Douglas","Gossiper":"Fabian"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":21,"Rumor Travel Time":3622,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":22,"Victim":"Yasmin","Gossiper":"Roberto"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":22,"Rumor Travel Time":4704,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":23,"Victim":"Andy","Gossiper":"Asher"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":23,"Rumor Travel Time":1930,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":24,"Victim":"Ian","Gossiper":"Julius"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":24,"Rumor Travel Time":5504,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":25,"Victim":"Mitchell","Gossiper":"Nicholas"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":25,"Rumor Travel Time":5192,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":26,"Victim":"Kelvin","Gossiper":"Giovanni"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":26,"Rumor Travel Time":2974,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":27,"Victim":"Ronald","Gossiper":"Theodore"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":27,"Rumor Travel Time":8596,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":28,"Victim":"Lindsay","Gossiper":"Audrey"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":28,"Rumor Travel Time":7122,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":29,"Victim":"Shannon","Gossiper":"Jorge"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":29,"Rumor Travel Time":2116,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":30,"Victim":"Taylor","Gossiper":"Caitlyn"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":30,"Rumor Travel Time":4770,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":31,"Victim":"Jacqueline","Gossiper":"Emely"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":31,"Rumor Travel Time":3923,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":32,"Victim":"Dennis","Gossiper":"Declan"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":32,"Rumor Travel Time":2595,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":33,"Victim":"Katelyn","Gossiper":"Penelope"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":33,"Rumor Travel Time":2213,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":34,"Victim":"Alejandro","Gossiper":"Kate"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":34,"Rumor Travel Time":2946,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":35,"Victim":"Walker","Gossiper":"Giselle"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":35,"Rumor Travel Time":4160,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":36,"Victim":"Jackson","Gossiper":"Erica"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":36,"Rumor Travel Time":5362,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":37,"Victim":"Paola","Gossiper":"Bridget"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":37,"Rumor Travel Time":6537,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":38,"Victim":"Angelica","Gossiper":"Darius"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":38,"Rumor Travel Time":3361,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":39,"Victim":"Jonah","Gossiper":"Andy"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":39,"Rumor Travel Time":6451,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":40,"Victim":"Mackenzie","Gossiper":"Lincoln"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":40,"Rumor Travel Time":6726,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":41,"Victim":"Claire","Gossiper":"Colin"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":41,"Rumor Travel Time":9544,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":42,"Victim":"Alberto","Gossiper":"Baylee"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":42,"Rumor Travel Time":7159,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":43,"Victim":"Natasha","Gossiper":"Diana"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":43,"Rumor Travel Time":7105,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":44,"Victim":"Alan","Gossiper":"Kaelyn"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":44,"Rumor Travel Time":6268,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":45,"Victim":"Patrick","Gossiper":"Abraham"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":45,"Rumor Travel Time":5822,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":46,"Victim":"Elise","Gossiper":"Adam"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":46,"Rumor Travel Time":5497,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":47,"Victim":"Lacey","Gossiper":"Nina"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":47,"Rumor Travel Time":3698,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":48,"Victim":"Reese","Gossiper":"Natasha"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":48,"Rumor Travel Time":1188,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":49,"Victim":"Amaya","Gossiper":"Simon"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":49,"Rumor Travel Time":6804,"Calculation Time":0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2531,8 +2826,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
@@ -31953,10 +32248,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="11.5703125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
@@ -31992,8 +32287,12 @@
       <c r="D4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" t="s">
+        <v>673</v>
+      </c>
+      <c r="F4" t="s">
+        <v>674</v>
+      </c>
       <c r="H4" t="s">
         <v>670</v>
       </c>
@@ -32009,8 +32308,12 @@
       <c r="D5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F5" t="s">
+        <v>676</v>
+      </c>
       <c r="H5" t="s">
         <v>671</v>
       </c>
@@ -32026,8 +32329,12 @@
       <c r="D6" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" t="s">
+        <v>677</v>
+      </c>
+      <c r="F6" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
@@ -32040,8 +32347,12 @@
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" t="s">
+        <v>679</v>
+      </c>
+      <c r="F7" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
@@ -32054,8 +32365,12 @@
       <c r="D8" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F8" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
@@ -32068,8 +32383,12 @@
       <c r="D9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" t="s">
+        <v>683</v>
+      </c>
+      <c r="F9" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
@@ -32082,8 +32401,12 @@
       <c r="D10" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" t="s">
+        <v>685</v>
+      </c>
+      <c r="F10" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
@@ -32096,8 +32419,12 @@
       <c r="D11" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" t="s">
+        <v>687</v>
+      </c>
+      <c r="F11" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
@@ -32110,8 +32437,12 @@
       <c r="D12" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" t="s">
+        <v>689</v>
+      </c>
+      <c r="F12" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
@@ -32124,8 +32455,12 @@
       <c r="D13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" t="s">
+        <v>691</v>
+      </c>
+      <c r="F13" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
@@ -32138,8 +32473,12 @@
       <c r="D14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" t="s">
+        <v>693</v>
+      </c>
+      <c r="F14" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
@@ -32152,8 +32491,12 @@
       <c r="D15" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" t="s">
+        <v>695</v>
+      </c>
+      <c r="F15" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
@@ -32166,8 +32509,12 @@
       <c r="D16" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" t="s">
+        <v>697</v>
+      </c>
+      <c r="F16" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
@@ -32180,8 +32527,12 @@
       <c r="D17" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" t="s">
+        <v>699</v>
+      </c>
+      <c r="F17" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
@@ -32194,8 +32545,12 @@
       <c r="D18" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" t="s">
+        <v>701</v>
+      </c>
+      <c r="F18" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
@@ -32208,8 +32563,12 @@
       <c r="D19" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" t="s">
+        <v>703</v>
+      </c>
+      <c r="F19" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
@@ -32222,8 +32581,12 @@
       <c r="D20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" t="s">
+        <v>705</v>
+      </c>
+      <c r="F20" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
@@ -32236,8 +32599,12 @@
       <c r="D21" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" t="s">
+        <v>707</v>
+      </c>
+      <c r="F21" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
@@ -32250,8 +32617,12 @@
       <c r="D22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" t="s">
+        <v>709</v>
+      </c>
+      <c r="F22" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
@@ -32264,8 +32635,12 @@
       <c r="D23" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" t="s">
+        <v>711</v>
+      </c>
+      <c r="F23" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
@@ -32278,8 +32653,12 @@
       <c r="D24" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" t="s">
+        <v>713</v>
+      </c>
+      <c r="F24" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
@@ -32292,8 +32671,12 @@
       <c r="D25" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" t="s">
+        <v>715</v>
+      </c>
+      <c r="F25" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
@@ -32306,8 +32689,12 @@
       <c r="D26" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" t="s">
+        <v>717</v>
+      </c>
+      <c r="F26" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
@@ -32320,8 +32707,12 @@
       <c r="D27" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E27" t="s">
+        <v>719</v>
+      </c>
+      <c r="F27" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
@@ -32334,8 +32725,12 @@
       <c r="D28" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" t="s">
+        <v>721</v>
+      </c>
+      <c r="F28" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
@@ -32348,8 +32743,12 @@
       <c r="D29" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" t="s">
+        <v>723</v>
+      </c>
+      <c r="F29" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
@@ -32362,8 +32761,12 @@
       <c r="D30" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" t="s">
+        <v>725</v>
+      </c>
+      <c r="F30" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
@@ -32376,8 +32779,12 @@
       <c r="D31" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" t="s">
+        <v>727</v>
+      </c>
+      <c r="F31" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
@@ -32390,8 +32797,12 @@
       <c r="D32" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" t="s">
+        <v>729</v>
+      </c>
+      <c r="F32" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
@@ -32404,8 +32815,12 @@
       <c r="D33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" t="s">
+        <v>731</v>
+      </c>
+      <c r="F33" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
@@ -32418,8 +32833,12 @@
       <c r="D34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" t="s">
+        <v>733</v>
+      </c>
+      <c r="F34" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
@@ -32432,8 +32851,12 @@
       <c r="D35" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" t="s">
+        <v>735</v>
+      </c>
+      <c r="F35" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
@@ -32446,8 +32869,12 @@
       <c r="D36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" t="s">
+        <v>737</v>
+      </c>
+      <c r="F36" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
@@ -32460,8 +32887,12 @@
       <c r="D37" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E37" t="s">
+        <v>739</v>
+      </c>
+      <c r="F37" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
@@ -32474,8 +32905,12 @@
       <c r="D38" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="E38" t="s">
+        <v>741</v>
+      </c>
+      <c r="F38" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
@@ -32488,8 +32923,12 @@
       <c r="D39" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="E39" t="s">
+        <v>743</v>
+      </c>
+      <c r="F39" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
@@ -32502,8 +32941,12 @@
       <c r="D40" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="E40" t="s">
+        <v>745</v>
+      </c>
+      <c r="F40" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
@@ -32516,8 +32959,12 @@
       <c r="D41" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="E41" t="s">
+        <v>747</v>
+      </c>
+      <c r="F41" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
@@ -32530,8 +32977,12 @@
       <c r="D42" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="E42" t="s">
+        <v>749</v>
+      </c>
+      <c r="F42" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
@@ -32544,8 +32995,12 @@
       <c r="D43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="E43" t="s">
+        <v>751</v>
+      </c>
+      <c r="F43" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
@@ -32558,8 +33013,12 @@
       <c r="D44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="E44" t="s">
+        <v>753</v>
+      </c>
+      <c r="F44" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
@@ -32572,8 +33031,12 @@
       <c r="D45" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="E45" t="s">
+        <v>755</v>
+      </c>
+      <c r="F45" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
@@ -32586,8 +33049,12 @@
       <c r="D46" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="E46" t="s">
+        <v>757</v>
+      </c>
+      <c r="F46" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
@@ -32600,8 +33067,12 @@
       <c r="D47" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="E47" t="s">
+        <v>759</v>
+      </c>
+      <c r="F47" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
@@ -32614,8 +33085,12 @@
       <c r="D48" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="E48" t="s">
+        <v>761</v>
+      </c>
+      <c r="F48" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
@@ -32628,8 +33103,12 @@
       <c r="D49" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="E49" t="s">
+        <v>763</v>
+      </c>
+      <c r="F49" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
@@ -32642,8 +33121,12 @@
       <c r="D50" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="E50" t="s">
+        <v>765</v>
+      </c>
+      <c r="F50" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
@@ -32656,8 +33139,12 @@
       <c r="D51" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="E51" t="s">
+        <v>767</v>
+      </c>
+      <c r="F51" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
@@ -32670,8 +33157,12 @@
       <c r="D52" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="E52" t="s">
+        <v>769</v>
+      </c>
+      <c r="F52" t="s">
+        <v>770</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Programming Challenge.xlsx
+++ b/Programming Challenge.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5551" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8197" uniqueCount="968">
   <si>
     <t>Emma</t>
   </si>
@@ -2042,295 +2042,886 @@
     <t>{"Rumor ID":1,"Victim":"Diana","Gossiper":"Kyler"}</t>
   </si>
   <si>
+    <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":2,"Victim":"Angel","Gossiper":"Carmen"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":2,"Rumor Travel Time":4035,"Calculation Time":9}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Victim":"Madilyn","Gossiper":"Sofia"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Rumor Travel Time":5321,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":4,"Victim":"Kayla","Gossiper":"Brodie"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":4,"Rumor Travel Time":2725,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":5,"Victim":"Marisol","Gossiper":"Eliana"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":5,"Rumor Travel Time":1653,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Victim":"Aaliyah","Gossiper":"Maria"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Victim":"Max","Gossiper":"Kameron"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":8,"Victim":"Fabian","Gossiper":"Richard"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":8,"Rumor Travel Time":3256,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":9,"Victim":"Nicholas","Gossiper":"Juan"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":9,"Rumor Travel Time":4582,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Victim":"Stephanie","Gossiper":"Brenda"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Victim":"Amelia","Gossiper":"Beckett"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Rumor Travel Time":5748,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Victim":"Ryder","Gossiper":"Penelope"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Victim":"Baylee","Gossiper":"Sarai"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":14,"Victim":"Kyra","Gossiper":"Xavier"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":14,"Rumor Travel Time":2919,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Victim":"Paola","Gossiper":"Katelynn"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Rumor Travel Time":3935,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":16,"Victim":"Kara","Gossiper":"Madyson"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":16,"Rumor Travel Time":5258,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Victim":"Brooklyn","Gossiper":"Jose"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":18,"Victim":"Cade","Gossiper":"Sarai"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":18,"Rumor Travel Time":3108,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Victim":"Sophia","Gossiper":"Ricky"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Rumor Travel Time":8070,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":20,"Victim":"Elliot","Gossiper":"Bryan"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":20,"Rumor Travel Time":5267,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":21,"Victim":"Douglas","Gossiper":"Fabian"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":21,"Rumor Travel Time":3622,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":22,"Victim":"Yasmin","Gossiper":"Roberto"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":22,"Rumor Travel Time":4704,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":23,"Victim":"Andy","Gossiper":"Asher"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":23,"Rumor Travel Time":1930,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":24,"Victim":"Ian","Gossiper":"Julius"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":24,"Rumor Travel Time":5504,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":25,"Victim":"Mitchell","Gossiper":"Nicholas"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":25,"Rumor Travel Time":5192,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":26,"Victim":"Kelvin","Gossiper":"Giovanni"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":26,"Rumor Travel Time":2974,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":27,"Victim":"Ronald","Gossiper":"Theodore"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":27,"Rumor Travel Time":8596,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":28,"Victim":"Lindsay","Gossiper":"Audrey"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":28,"Rumor Travel Time":7122,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":29,"Victim":"Shannon","Gossiper":"Jorge"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":29,"Rumor Travel Time":2116,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":30,"Victim":"Taylor","Gossiper":"Caitlyn"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":30,"Rumor Travel Time":4770,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":31,"Victim":"Jacqueline","Gossiper":"Emely"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":31,"Rumor Travel Time":3923,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":32,"Victim":"Dennis","Gossiper":"Declan"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":32,"Rumor Travel Time":2595,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":33,"Victim":"Katelyn","Gossiper":"Penelope"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":33,"Rumor Travel Time":2213,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":34,"Victim":"Alejandro","Gossiper":"Kate"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":34,"Rumor Travel Time":2946,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":35,"Victim":"Walker","Gossiper":"Giselle"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":35,"Rumor Travel Time":4160,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":36,"Victim":"Jackson","Gossiper":"Erica"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":36,"Rumor Travel Time":5362,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":37,"Victim":"Paola","Gossiper":"Bridget"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":37,"Rumor Travel Time":6537,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":38,"Victim":"Angelica","Gossiper":"Darius"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":38,"Rumor Travel Time":3361,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":39,"Victim":"Jonah","Gossiper":"Andy"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":39,"Rumor Travel Time":6451,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":40,"Victim":"Mackenzie","Gossiper":"Lincoln"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":40,"Rumor Travel Time":6726,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":41,"Victim":"Claire","Gossiper":"Colin"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":41,"Rumor Travel Time":9544,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":42,"Victim":"Alberto","Gossiper":"Baylee"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":42,"Rumor Travel Time":7159,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":43,"Victim":"Natasha","Gossiper":"Diana"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":43,"Rumor Travel Time":7105,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":44,"Victim":"Alan","Gossiper":"Kaelyn"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":44,"Rumor Travel Time":6268,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":45,"Victim":"Patrick","Gossiper":"Abraham"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":45,"Rumor Travel Time":5822,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":46,"Victim":"Elise","Gossiper":"Adam"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":46,"Rumor Travel Time":5497,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":47,"Victim":"Lacey","Gossiper":"Nina"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":47,"Rumor Travel Time":3698,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":48,"Victim":"Reese","Gossiper":"Natasha"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":48,"Rumor Travel Time":1188,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":49,"Victim":"Amaya","Gossiper":"Simon"}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":49,"Rumor Travel Time":6804,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":2,"Rumor Travel Time":4035,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Rumor Travel Time":5321,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Rumor Travel Time":5748,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":14,"Rumor Travel Time":2919,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Rumor Travel Time":8070,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":20,"Rumor Travel Time":5267,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":22,"Rumor Travel Time":4704,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":27,"Rumor Travel Time":8596,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":28,"Rumor Travel Time":7122,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":36,"Rumor Travel Time":5362,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":40,"Rumor Travel Time":6726,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":41,"Rumor Travel Time":9544,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":44,"Rumor Travel Time":6268,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":45,"Rumor Travel Time":5822,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":5,"Rumor Travel Time":1653,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Rumor Travel Time":5748,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Rumor Travel Time":3935,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":21,"Rumor Travel Time":3622,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":25,"Rumor Travel Time":5192,"Calculation Time":1}</t>
+  </si>
+  <si>
     <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":4}</t>
   </si>
   <si>
-    <t>{"Rumor ID":2,"Victim":"Angel","Gossiper":"Carmen"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":2,"Rumor Travel Time":4035,"Calculation Time":9}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":3,"Victim":"Madilyn","Gossiper":"Sofia"}</t>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":16,"Rumor Travel Time":5258,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":18,"Rumor Travel Time":3108,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":39,"Rumor Travel Time":6451,"Calculation Time":1}</t>
   </si>
   <si>
     <t>{"Rumor ID":3,"Rumor Travel Time":5321,"Calculation Time":5}</t>
   </si>
   <si>
-    <t>{"Rumor ID":4,"Victim":"Kayla","Gossiper":"Brodie"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":4,"Rumor Travel Time":2725,"Calculation Time":2}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":5,"Victim":"Marisol","Gossiper":"Eliana"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":5,"Rumor Travel Time":1653,"Calculation Time":1}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":6,"Victim":"Aaliyah","Gossiper":"Maria"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":5}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":7,"Victim":"Max","Gossiper":"Kameron"}</t>
-  </si>
-  <si>
     <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":6}</t>
   </si>
   <si>
-    <t>{"Rumor ID":8,"Victim":"Fabian","Gossiper":"Richard"}</t>
+    <t>{"Rumor ID":8,"Rumor Travel Time":3256,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":7}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":42,"Rumor Travel Time":7159,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":43,"Rumor Travel Time":7105,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":45,"Rumor Travel Time":5822,"Calculation Time":10}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":6}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":24,"Rumor Travel Time":5504,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":2,"Rumor Travel Time":4035,"Calculation Time":7}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":31,"Rumor Travel Time":3923,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":37,"Rumor Travel Time":6537,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":24}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":6}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":20,"Rumor Travel Time":5267,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":22,"Rumor Travel Time":4704,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":48,"Rumor Travel Time":1188,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":28}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":2,"Rumor Travel Time":4035,"Calculation Time":13}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Rumor Travel Time":5321,"Calculation Time":22}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":4,"Rumor Travel Time":2725,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":10}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":20}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":8,"Rumor Travel Time":3256,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Rumor Travel Time":5748,"Calculation Time":7}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":14,"Rumor Travel Time":2919,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Rumor Travel Time":3935,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":16,"Rumor Travel Time":5258,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Rumor Travel Time":8070,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":24,"Rumor Travel Time":5504,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":27,"Rumor Travel Time":8596,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":28,"Rumor Travel Time":7122,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":116}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":10}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":2,"Rumor Travel Time":4035,"Calculation Time":12}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Rumor Travel Time":5321,"Calculation Time":11}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":4,"Rumor Travel Time":2725,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":5,"Rumor Travel Time":1653,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":13}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":21}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":8,"Rumor Travel Time":3256,"Calculation Time":6}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":9,"Rumor Travel Time":4582,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":16}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Rumor Travel Time":5748,"Calculation Time":17}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":20}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":22}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":14,"Rumor Travel Time":2919,"Calculation Time":9}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Rumor Travel Time":3935,"Calculation Time":23}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":16,"Rumor Travel Time":5258,"Calculation Time":13}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":6}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":18,"Rumor Travel Time":3108,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Rumor Travel Time":8070,"Calculation Time":20}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":20,"Rumor Travel Time":5267,"Calculation Time":7}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":21,"Rumor Travel Time":3622,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":24,"Rumor Travel Time":5504,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":25,"Rumor Travel Time":5192,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":26,"Rumor Travel Time":2974,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":27,"Rumor Travel Time":8596,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":28,"Rumor Travel Time":7122,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":2,"Rumor Travel Time":4035,"Calculation Time":11}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Rumor Travel Time":5321,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":9}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":9}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Rumor Travel Time":5321,"Calculation Time":9}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Rumor Travel Time":5748,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":11}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":18}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":15}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Rumor Travel Time":5748,"Calculation Time":14}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":16}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":23}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":14,"Rumor Travel Time":2919,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Rumor Travel Time":3935,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":16,"Rumor Travel Time":5258,"Calculation Time":7}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Rumor Travel Time":8070,"Calculation Time":6}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":20,"Rumor Travel Time":5267,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":22,"Rumor Travel Time":4704,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":132}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":7}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":15}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":8,"Rumor Travel Time":3256,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":9,"Rumor Travel Time":4582,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":12}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":17}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Rumor Travel Time":3935,"Calculation Time":7}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Rumor Travel Time":8070,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":20,"Rumor Travel Time":5267,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":25,"Rumor Travel Time":5192,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":31,"Rumor Travel Time":3923,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":35,"Rumor Travel Time":4160,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":20}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":2,"Rumor Travel Time":4035,"Calculation Time":10}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":15}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":9}</t>
   </si>
   <si>
     <t>{"Rumor ID":8,"Rumor Travel Time":3256,"Calculation Time":1}</t>
   </si>
   <si>
-    <t>{"Rumor ID":9,"Victim":"Nicholas","Gossiper":"Juan"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":9,"Rumor Travel Time":4582,"Calculation Time":1}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":10,"Victim":"Stephanie","Gossiper":"Brenda"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":5}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":11,"Victim":"Amelia","Gossiper":"Beckett"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":11,"Rumor Travel Time":5748,"Calculation Time":3}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":12,"Victim":"Ryder","Gossiper":"Penelope"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":2}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":13,"Victim":"Baylee","Gossiper":"Sarai"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":2}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":14,"Victim":"Kyra","Gossiper":"Xavier"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":14,"Rumor Travel Time":2919,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":15,"Victim":"Paola","Gossiper":"Katelynn"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":15,"Rumor Travel Time":3935,"Calculation Time":1}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":16,"Victim":"Kara","Gossiper":"Madyson"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":16,"Rumor Travel Time":5258,"Calculation Time":2}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":17,"Victim":"Brooklyn","Gossiper":"Jose"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":1}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":18,"Victim":"Cade","Gossiper":"Sarai"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":18,"Rumor Travel Time":3108,"Calculation Time":1}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":19,"Victim":"Sophia","Gossiper":"Ricky"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":19,"Rumor Travel Time":8070,"Calculation Time":3}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":20,"Victim":"Elliot","Gossiper":"Bryan"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":20,"Rumor Travel Time":5267,"Calculation Time":1}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":21,"Victim":"Douglas","Gossiper":"Fabian"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":21,"Rumor Travel Time":3622,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":22,"Victim":"Yasmin","Gossiper":"Roberto"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":22,"Rumor Travel Time":4704,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":23,"Victim":"Andy","Gossiper":"Asher"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":23,"Rumor Travel Time":1930,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":24,"Victim":"Ian","Gossiper":"Julius"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":24,"Rumor Travel Time":5504,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":25,"Victim":"Mitchell","Gossiper":"Nicholas"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":25,"Rumor Travel Time":5192,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":26,"Victim":"Kelvin","Gossiper":"Giovanni"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":26,"Rumor Travel Time":2974,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":27,"Victim":"Ronald","Gossiper":"Theodore"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":27,"Rumor Travel Time":8596,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":28,"Victim":"Lindsay","Gossiper":"Audrey"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":28,"Rumor Travel Time":7122,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":29,"Victim":"Shannon","Gossiper":"Jorge"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":29,"Rumor Travel Time":2116,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":30,"Victim":"Taylor","Gossiper":"Caitlyn"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":30,"Rumor Travel Time":4770,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":31,"Victim":"Jacqueline","Gossiper":"Emely"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":31,"Rumor Travel Time":3923,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":32,"Victim":"Dennis","Gossiper":"Declan"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":32,"Rumor Travel Time":2595,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":33,"Victim":"Katelyn","Gossiper":"Penelope"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":33,"Rumor Travel Time":2213,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":34,"Victim":"Alejandro","Gossiper":"Kate"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":34,"Rumor Travel Time":2946,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":35,"Victim":"Walker","Gossiper":"Giselle"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":35,"Rumor Travel Time":4160,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":36,"Victim":"Jackson","Gossiper":"Erica"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":36,"Rumor Travel Time":5362,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":37,"Victim":"Paola","Gossiper":"Bridget"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":37,"Rumor Travel Time":6537,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":38,"Victim":"Angelica","Gossiper":"Darius"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":38,"Rumor Travel Time":3361,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":39,"Victim":"Jonah","Gossiper":"Andy"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":39,"Rumor Travel Time":6451,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":40,"Victim":"Mackenzie","Gossiper":"Lincoln"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":40,"Rumor Travel Time":6726,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":41,"Victim":"Claire","Gossiper":"Colin"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":41,"Rumor Travel Time":9544,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":42,"Victim":"Alberto","Gossiper":"Baylee"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":42,"Rumor Travel Time":7159,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":43,"Victim":"Natasha","Gossiper":"Diana"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":43,"Rumor Travel Time":7105,"Calculation Time":1}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":44,"Victim":"Alan","Gossiper":"Kaelyn"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":44,"Rumor Travel Time":6268,"Calculation Time":1}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":45,"Victim":"Patrick","Gossiper":"Abraham"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":45,"Rumor Travel Time":5822,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":46,"Victim":"Elise","Gossiper":"Adam"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":46,"Rumor Travel Time":5497,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":47,"Victim":"Lacey","Gossiper":"Nina"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":47,"Rumor Travel Time":3698,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":48,"Victim":"Reese","Gossiper":"Natasha"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":48,"Rumor Travel Time":1188,"Calculation Time":0}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":49,"Victim":"Amaya","Gossiper":"Simon"}</t>
-  </si>
-  <si>
-    <t>{"Rumor ID":49,"Rumor Travel Time":6804,"Calculation Time":0}</t>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":24}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":35,"Rumor Travel Time":4160,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":6}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":19}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":8,"Rumor Travel Time":3256,"Calculation Time":7}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":18}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":28}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":21}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":14,"Rumor Travel Time":2919,"Calculation Time":7}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Rumor Travel Time":3935,"Calculation Time":15}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":16,"Rumor Travel Time":5258,"Calculation Time":17}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":5}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Rumor Travel Time":8070,"Calculation Time":10}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":21,"Rumor Travel Time":3622,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":34,"Rumor Travel Time":2946,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":35,"Rumor Travel Time":4160,"Calculation Time":9}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":44,"Rumor Travel Time":6268,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Rumor Travel Time":5321,"Calculation Time":7}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":4,"Rumor Travel Time":2725,"Calculation Time":3}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":12}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":17}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":10,"Rumor Travel Time":5342,"Calculation Time":14}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Rumor Travel Time":5748,"Calculation Time":13}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":25}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":14,"Rumor Travel Time":2919,"Calculation Time":13}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Rumor Travel Time":3935,"Calculation Time":18}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":9}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":18,"Rumor Travel Time":3108,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Rumor Travel Time":8070,"Calculation Time":27}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":20,"Rumor Travel Time":5267,"Calculation Time":9}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":21,"Rumor Travel Time":3622,"Calculation Time":9}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":22,"Rumor Travel Time":4704,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":23,"Rumor Travel Time":1930,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":24,"Rumor Travel Time":5504,"Calculation Time":6}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":25,"Rumor Travel Time":5192,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":26,"Rumor Travel Time":2974,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":12,"Rumor Travel Time":4435,"Calculation Time":18}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":14,"Rumor Travel Time":2919,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":15,"Rumor Travel Time":3935,"Calculation Time":16}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":16,"Rumor Travel Time":5258,"Calculation Time":16}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":19,"Rumor Travel Time":8070,"Calculation Time":15}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":22,"Rumor Travel Time":4704,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":25,"Rumor Travel Time":5192,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":38,"Rumor Travel Time":3361,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":39,"Rumor Travel Time":6451,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":9,"Rumor Travel Time":4582,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":49,"Rumor Travel Time":6804,"Calculation Time":19}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Rumor Travel Time":5321,"Calculation Time":12}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":4,"Rumor Travel Time":2725,"Calculation Time":6}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":6,"Rumor Travel Time":5265,"Calculation Time":23}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":7,"Rumor Travel Time":5684,"Calculation Time":10}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":9,"Rumor Travel Time":4582,"Calculation Time":8}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":18,"Rumor Travel Time":3108,"Calculation Time":6}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":13,"Rumor Travel Time":6066,"Calculation Time":4}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":17,"Rumor Travel Time":4840,"Calculation Time":0}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":47,"Rumor Travel Time":3698,"Calculation Time":22}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":3,"Rumor Travel Time":5321,"Calculation Time":6}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":47,"Rumor Travel Time":3698,"Calculation Time":25}</t>
   </si>
 </sst>
 </file>
@@ -2826,8 +3417,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
@@ -32248,10 +32839,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="11.5703125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.140625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.42578125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
@@ -32291,7 +32882,7 @@
         <v>673</v>
       </c>
       <c r="F4" t="s">
-        <v>674</v>
+        <v>787</v>
       </c>
       <c r="H4" t="s">
         <v>670</v>
@@ -32312,7 +32903,7 @@
         <v>675</v>
       </c>
       <c r="F5" t="s">
-        <v>676</v>
+        <v>840</v>
       </c>
       <c r="H5" t="s">
         <v>671</v>
@@ -32333,7 +32924,7 @@
         <v>677</v>
       </c>
       <c r="F6" t="s">
-        <v>678</v>
+        <v>966</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -32387,7 +32978,7 @@
         <v>683</v>
       </c>
       <c r="F9" t="s">
-        <v>684</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -32459,7 +33050,7 @@
         <v>691</v>
       </c>
       <c r="F13" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -32477,7 +33068,7 @@
         <v>693</v>
       </c>
       <c r="F14" t="s">
-        <v>694</v>
+        <v>791</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -32495,7 +33086,7 @@
         <v>695</v>
       </c>
       <c r="F15" t="s">
-        <v>696</v>
+        <v>889</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -32513,7 +33104,7 @@
         <v>697</v>
       </c>
       <c r="F16" t="s">
-        <v>698</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -32657,7 +33248,7 @@
         <v>713</v>
       </c>
       <c r="F24" t="s">
-        <v>714</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -32675,7 +33266,7 @@
         <v>715</v>
       </c>
       <c r="F25" t="s">
-        <v>716</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -32711,7 +33302,7 @@
         <v>719</v>
       </c>
       <c r="F27" t="s">
-        <v>720</v>
+        <v>812</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -32729,7 +33320,7 @@
         <v>721</v>
       </c>
       <c r="F28" t="s">
-        <v>722</v>
+        <v>795</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -32783,7 +33374,7 @@
         <v>727</v>
       </c>
       <c r="F31" t="s">
-        <v>728</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -32891,7 +33482,7 @@
         <v>739</v>
       </c>
       <c r="F37" t="s">
-        <v>740</v>
+        <v>923</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -32909,7 +33500,7 @@
         <v>741</v>
       </c>
       <c r="F38" t="s">
-        <v>742</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -32981,7 +33572,7 @@
         <v>749</v>
       </c>
       <c r="F42" t="s">
-        <v>750</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -32999,7 +33590,7 @@
         <v>751</v>
       </c>
       <c r="F43" t="s">
-        <v>752</v>
+        <v>783</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -33017,7 +33608,7 @@
         <v>753</v>
       </c>
       <c r="F44" t="s">
-        <v>754</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -33053,7 +33644,7 @@
         <v>757</v>
       </c>
       <c r="F46" t="s">
-        <v>758</v>
+        <v>809</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -33071,7 +33662,7 @@
         <v>759</v>
       </c>
       <c r="F47" t="s">
-        <v>760</v>
+        <v>785</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -33089,7 +33680,7 @@
         <v>761</v>
       </c>
       <c r="F48" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -33125,7 +33716,7 @@
         <v>765</v>
       </c>
       <c r="F50" t="s">
-        <v>766</v>
+        <v>967</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">

--- a/Programming Challenge.xlsx
+++ b/Programming Challenge.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8197" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8295" uniqueCount="970">
   <si>
     <t>Emma</t>
   </si>
@@ -2922,6 +2922,12 @@
   </si>
   <si>
     <t>{"Rumor ID":47,"Rumor Travel Time":3698,"Calculation Time":25}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":1,"Rumor Travel Time":4032,"Calculation Time":53}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":4,"Rumor Travel Time":2725,"Calculation Time":2}</t>
   </si>
 </sst>
 </file>
@@ -32882,7 +32888,7 @@
         <v>673</v>
       </c>
       <c r="F4" t="s">
-        <v>787</v>
+        <v>968</v>
       </c>
       <c r="H4" t="s">
         <v>670</v>
@@ -32903,7 +32909,7 @@
         <v>675</v>
       </c>
       <c r="F5" t="s">
-        <v>840</v>
+        <v>904</v>
       </c>
       <c r="H5" t="s">
         <v>671</v>
@@ -32924,7 +32930,7 @@
         <v>677</v>
       </c>
       <c r="F6" t="s">
-        <v>966</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -32942,7 +32948,7 @@
         <v>679</v>
       </c>
       <c r="F7" t="s">
-        <v>680</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -32960,7 +32966,7 @@
         <v>681</v>
       </c>
       <c r="F8" t="s">
-        <v>682</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -32978,7 +32984,7 @@
         <v>683</v>
       </c>
       <c r="F9" t="s">
-        <v>789</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -33050,7 +33056,7 @@
         <v>691</v>
       </c>
       <c r="F13" t="s">
-        <v>773</v>
+        <v>811</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -33068,7 +33074,7 @@
         <v>693</v>
       </c>
       <c r="F14" t="s">
-        <v>791</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -33086,7 +33092,7 @@
         <v>695</v>
       </c>
       <c r="F15" t="s">
-        <v>889</v>
+        <v>797</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -33122,7 +33128,7 @@
         <v>699</v>
       </c>
       <c r="F17" t="s">
-        <v>700</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -33230,7 +33236,7 @@
         <v>711</v>
       </c>
       <c r="F23" t="s">
-        <v>712</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -33302,7 +33308,7 @@
         <v>719</v>
       </c>
       <c r="F27" t="s">
-        <v>812</v>
+        <v>720</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -33320,7 +33326,7 @@
         <v>721</v>
       </c>
       <c r="F28" t="s">
-        <v>795</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -33356,7 +33362,7 @@
         <v>725</v>
       </c>
       <c r="F30" t="s">
-        <v>726</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -33482,7 +33488,7 @@
         <v>739</v>
       </c>
       <c r="F37" t="s">
-        <v>923</v>
+        <v>740</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -33500,7 +33506,7 @@
         <v>741</v>
       </c>
       <c r="F38" t="s">
-        <v>902</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -33572,7 +33578,7 @@
         <v>749</v>
       </c>
       <c r="F42" t="s">
-        <v>801</v>
+        <v>750</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -33644,7 +33650,7 @@
         <v>757</v>
       </c>
       <c r="F46" t="s">
-        <v>809</v>
+        <v>758</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -33680,7 +33686,7 @@
         <v>761</v>
       </c>
       <c r="F48" t="s">
-        <v>786</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -33716,7 +33722,7 @@
         <v>765</v>
       </c>
       <c r="F50" t="s">
-        <v>967</v>
+        <v>766</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">

--- a/Programming Challenge.xlsx
+++ b/Programming Challenge.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8295" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8393" uniqueCount="972">
   <si>
     <t>Emma</t>
   </si>
@@ -2928,6 +2928,12 @@
   </si>
   <si>
     <t>{"Rumor ID":4,"Rumor Travel Time":2725,"Calculation Time":2}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":11,"Rumor Travel Time":5748,"Calculation Time":1}</t>
+  </si>
+  <si>
+    <t>{"Rumor ID":44,"Rumor Travel Time":6268,"Calculation Time":26}</t>
   </si>
 </sst>
 </file>
@@ -32888,7 +32894,7 @@
         <v>673</v>
       </c>
       <c r="F4" t="s">
-        <v>968</v>
+        <v>674</v>
       </c>
       <c r="H4" t="s">
         <v>670</v>
@@ -32909,7 +32915,7 @@
         <v>675</v>
       </c>
       <c r="F5" t="s">
-        <v>904</v>
+        <v>771</v>
       </c>
       <c r="H5" t="s">
         <v>671</v>
@@ -32930,7 +32936,7 @@
         <v>677</v>
       </c>
       <c r="F6" t="s">
-        <v>802</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -32948,7 +32954,7 @@
         <v>679</v>
       </c>
       <c r="F7" t="s">
-        <v>969</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -32966,7 +32972,7 @@
         <v>681</v>
       </c>
       <c r="F8" t="s">
-        <v>788</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -32984,7 +32990,7 @@
         <v>683</v>
       </c>
       <c r="F9" t="s">
-        <v>817</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -33020,7 +33026,7 @@
         <v>687</v>
       </c>
       <c r="F11" t="s">
-        <v>688</v>
+        <v>907</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -33038,7 +33044,7 @@
         <v>689</v>
       </c>
       <c r="F12" t="s">
-        <v>690</v>
+        <v>955</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -33056,7 +33062,7 @@
         <v>691</v>
       </c>
       <c r="F13" t="s">
-        <v>811</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -33074,7 +33080,7 @@
         <v>693</v>
       </c>
       <c r="F14" t="s">
-        <v>694</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -33092,7 +33098,7 @@
         <v>695</v>
       </c>
       <c r="F15" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -33128,7 +33134,7 @@
         <v>699</v>
       </c>
       <c r="F17" t="s">
-        <v>776</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -33164,7 +33170,7 @@
         <v>703</v>
       </c>
       <c r="F19" t="s">
-        <v>704</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -33182,7 +33188,7 @@
         <v>705</v>
       </c>
       <c r="F20" t="s">
-        <v>706</v>
+        <v>869</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -33200,7 +33206,7 @@
         <v>707</v>
       </c>
       <c r="F21" t="s">
-        <v>708</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -33218,7 +33224,7 @@
         <v>709</v>
       </c>
       <c r="F22" t="s">
-        <v>710</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -33362,7 +33368,7 @@
         <v>725</v>
       </c>
       <c r="F30" t="s">
-        <v>780</v>
+        <v>726</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -33380,7 +33386,7 @@
         <v>727</v>
       </c>
       <c r="F31" t="s">
-        <v>781</v>
+        <v>728</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -33578,7 +33584,7 @@
         <v>749</v>
       </c>
       <c r="F42" t="s">
-        <v>750</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -33614,7 +33620,7 @@
         <v>753</v>
       </c>
       <c r="F44" t="s">
-        <v>784</v>
+        <v>754</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -33668,7 +33674,7 @@
         <v>759</v>
       </c>
       <c r="F47" t="s">
-        <v>785</v>
+        <v>971</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
